--- a/biology/Zoologie/Cyllopsis_gemma/Cyllopsis_gemma.xlsx
+++ b/biology/Zoologie/Cyllopsis_gemma/Cyllopsis_gemma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyllopsis gemma est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre  Cyllopsis.
 </t>
@@ -511,15 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a été nommé Cyllopsis gemma par Jakob Hübner en  1808.
-Synonyme :Oreas gemma Hübner, 1808; Euptychia gemma ; Godman et Salvin, [1881][1].
-Noms vernaculaires
-Cyllopsis gemma se nomme Gemmed Satyr en anglais[1].
-Sous-espèce
-Cyllopsis gemma gemma
-Cyllopsis gemma freemani (Stallings et Turner, 1947) présent au Texas[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Cyllopsis gemma par Jakob Hübner en  1808.
+Synonyme :Oreas gemma Hübner, 1808; Euptychia gemma ; Godman et Salvin, .
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyllopsis gemma se nomme Gemmed Satyr en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cyllopsis gemma gemma
+Cyllopsis gemma freemani (Stallings et Turner, 1947) présent au Texas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon de taille moyenne (d'une envergure variant de 35 à 43 mm) présente un dessus de couleur beige foncé uni.
 Le revers de l'aile postérieure est orné d'une ligne submarginale de quatre ocelles noirs pupillés d'argent.
@@ -555,72 +641,184 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cyllopsis_gemma</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cyllopsis_gemma</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne au stade de chenille[2].
-L'imago vole toute l'année dans le sud de sa zone de répartition et de mars à octobre en trois générations plus au nord[3],[4].
-Plantes hôtes
-Les plantes hôte de sa chenille sont des Poaceae(Cynodon dactylon)[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne au stade de chenille.
+L'imago vole toute l'année dans le sud de sa zone de répartition et de mars à octobre en trois générations plus au nord,.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cyllopsis_gemma</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cyllopsis_gemma</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des Poaceae(Cynodon dactylon).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique du Nord dans le sud-est des USA, du centre de l'Oklahoma et du sud-est du Texas à la côte atlantique de la Virginie à la Floride et au Mexique[1],[2].
-Biotope
-Il réside dans des zones ouvertes proches de l'eau.
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Nord dans le sud-est des USA, du centre de l'Oklahoma et du sud-est du Texas à la côte atlantique de la Virginie à la Floride et au Mexique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des zones ouvertes proches de l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyllopsis_gemma</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
